--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H2">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I2">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J2">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N2">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O2">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P2">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q2">
-        <v>0.2714291075573333</v>
+        <v>1.106760403559333</v>
       </c>
       <c r="R2">
-        <v>2.442861968016</v>
+        <v>9.960843632033999</v>
       </c>
       <c r="S2">
-        <v>0.0004548058583732643</v>
+        <v>0.001674671723350985</v>
       </c>
       <c r="T2">
-        <v>0.0004548058583732644</v>
+        <v>0.001674671723350985</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H3">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I3">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J3">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.444981</v>
       </c>
       <c r="O3">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P3">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q3">
-        <v>0.6634032215606667</v>
+        <v>1.714055352701</v>
       </c>
       <c r="R3">
-        <v>5.970628994046</v>
+        <v>15.426498174309</v>
       </c>
       <c r="S3">
-        <v>0.001111596594575828</v>
+        <v>0.002593587575228858</v>
       </c>
       <c r="T3">
-        <v>0.001111596594575828</v>
+        <v>0.002593587575228858</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H4">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I4">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J4">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N4">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O4">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P4">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q4">
-        <v>0.26933157844</v>
+        <v>0.7340468505873332</v>
       </c>
       <c r="R4">
-        <v>2.42398420596</v>
+        <v>6.606421655286</v>
       </c>
       <c r="S4">
-        <v>0.0004512912444128946</v>
+        <v>0.001110707882519173</v>
       </c>
       <c r="T4">
-        <v>0.0004512912444128946</v>
+        <v>0.001110707882519173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H5">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I5">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J5">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N5">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O5">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P5">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q5">
-        <v>0.5102599324439999</v>
+        <v>0.8784621998093332</v>
       </c>
       <c r="R5">
-        <v>4.592339391996</v>
+        <v>7.906159798283999</v>
       </c>
       <c r="S5">
-        <v>0.0008549901248879795</v>
+        <v>0.001329226995582993</v>
       </c>
       <c r="T5">
-        <v>0.0008549901248879799</v>
+        <v>0.001329226995582993</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H6">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I6">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J6">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N6">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O6">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P6">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q6">
-        <v>0.04317997699866667</v>
+        <v>0.1222399076526667</v>
       </c>
       <c r="R6">
-        <v>0.388619792988</v>
+        <v>1.100159168874</v>
       </c>
       <c r="S6">
-        <v>7.235224947003227E-05</v>
+        <v>0.0001849648001072366</v>
       </c>
       <c r="T6">
-        <v>7.235224947003228E-05</v>
+        <v>0.0001849648001072365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H7">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I7">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J7">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N7">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O7">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P7">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q7">
-        <v>0.2569078944395555</v>
+        <v>0.7762239741553331</v>
       </c>
       <c r="R7">
-        <v>2.312171049956</v>
+        <v>6.986015767397999</v>
       </c>
       <c r="S7">
-        <v>0.0004304741540248018</v>
+        <v>0.001174527328882139</v>
       </c>
       <c r="T7">
-        <v>0.000430474154024802</v>
+        <v>0.001174527328882139</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>17.330513</v>
       </c>
       <c r="I8">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J8">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N8">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O8">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P8">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q8">
-        <v>31.07702969689866</v>
+        <v>49.04440053739756</v>
       </c>
       <c r="R8">
-        <v>279.693267272088</v>
+        <v>441.399604836578</v>
       </c>
       <c r="S8">
-        <v>0.05207258460297566</v>
+        <v>0.07421052515480274</v>
       </c>
       <c r="T8">
-        <v>0.05207258460297568</v>
+        <v>0.07421052515480273</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>17.330513</v>
       </c>
       <c r="I9">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J9">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>39.444981</v>
       </c>
       <c r="O9">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P9">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q9">
         <v>75.95575066725033</v>
@@ -1013,10 +1013,10 @@
         <v>683.6017560052529</v>
       </c>
       <c r="S9">
-        <v>0.1272712447514773</v>
+        <v>0.1149308806669126</v>
       </c>
       <c r="T9">
-        <v>0.1272712447514773</v>
+        <v>0.1149308806669126</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>17.330513</v>
       </c>
       <c r="I10">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J10">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N10">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O10">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P10">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q10">
-        <v>30.83687500142</v>
+        <v>32.52816746754022</v>
       </c>
       <c r="R10">
-        <v>277.53187501278</v>
+        <v>292.753507207862</v>
       </c>
       <c r="S10">
-        <v>0.05167018206257579</v>
+        <v>0.04921932705138984</v>
       </c>
       <c r="T10">
-        <v>0.05167018206257579</v>
+        <v>0.04921932705138983</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>17.330513</v>
       </c>
       <c r="I11">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J11">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N11">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O11">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P11">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q11">
-        <v>58.42174856044199</v>
+        <v>38.92771357364755</v>
       </c>
       <c r="R11">
-        <v>525.795737043978</v>
+        <v>350.349422162828</v>
       </c>
       <c r="S11">
-        <v>0.09789131954496222</v>
+        <v>0.05890266851510014</v>
       </c>
       <c r="T11">
-        <v>0.09789131954496226</v>
+        <v>0.05890266851510014</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>17.330513</v>
       </c>
       <c r="I12">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J12">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N12">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O12">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P12">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q12">
-        <v>4.943852336159333</v>
+        <v>5.416875209206444</v>
       </c>
       <c r="R12">
-        <v>44.494671025434</v>
+        <v>48.751876882858</v>
       </c>
       <c r="S12">
-        <v>0.00828390523644436</v>
+        <v>0.008196433223130449</v>
       </c>
       <c r="T12">
-        <v>0.008283905236444363</v>
+        <v>0.008196433223130448</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>17.330513</v>
       </c>
       <c r="I13">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J13">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N13">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O13">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P13">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q13">
-        <v>29.41443656030644</v>
+        <v>34.39718241886288</v>
       </c>
       <c r="R13">
-        <v>264.729929042758</v>
+        <v>309.574641769766</v>
       </c>
       <c r="S13">
-        <v>0.04928674816333146</v>
+        <v>0.05204738855362127</v>
       </c>
       <c r="T13">
-        <v>0.04928674816333148</v>
+        <v>0.05204738855362127</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1293,10 +1293,10 @@
         <v>1.88887</v>
       </c>
       <c r="I14">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J14">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N14">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O14">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P14">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q14">
-        <v>3.387116647013333</v>
+        <v>5.345398422024444</v>
       </c>
       <c r="R14">
-        <v>30.48404982312</v>
+        <v>48.10858579822</v>
       </c>
       <c r="S14">
-        <v>0.005675443241583365</v>
+        <v>0.008088279593867317</v>
       </c>
       <c r="T14">
-        <v>0.005675443241583367</v>
+        <v>0.008088279593867315</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1355,10 +1355,10 @@
         <v>1.88887</v>
       </c>
       <c r="I15">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J15">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,10 +1373,10 @@
         <v>39.444981</v>
       </c>
       <c r="O15">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P15">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q15">
         <v>8.278493473496667</v>
@@ -1385,10 +1385,10 @@
         <v>74.50644126147</v>
       </c>
       <c r="S15">
-        <v>0.01387142065983407</v>
+        <v>0.01252643199686653</v>
       </c>
       <c r="T15">
-        <v>0.01387142065983407</v>
+        <v>0.01252643199686653</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1417,10 +1417,10 @@
         <v>1.88887</v>
       </c>
       <c r="I16">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J16">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N16">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O16">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P16">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q16">
-        <v>3.3609419458</v>
+        <v>3.545277608597778</v>
       </c>
       <c r="R16">
-        <v>30.2484775122</v>
+        <v>31.90749847738</v>
       </c>
       <c r="S16">
-        <v>0.005631584984964815</v>
+        <v>0.005364463838292538</v>
       </c>
       <c r="T16">
-        <v>0.005631584984964815</v>
+        <v>0.005364463838292537</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1479,10 +1479,10 @@
         <v>1.88887</v>
       </c>
       <c r="I17">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J17">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N17">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O17">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P17">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q17">
-        <v>6.367444991579999</v>
+        <v>4.242770559524444</v>
       </c>
       <c r="R17">
-        <v>57.30700492422</v>
+        <v>38.18493503572</v>
       </c>
       <c r="S17">
-        <v>0.01066927313397433</v>
+        <v>0.006419860939957012</v>
       </c>
       <c r="T17">
-        <v>0.01066927313397433</v>
+        <v>0.006419860939957012</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1541,10 +1541,10 @@
         <v>1.88887</v>
       </c>
       <c r="I18">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J18">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N18">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O18">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P18">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q18">
-        <v>0.5388354264066666</v>
+        <v>0.5903906639355556</v>
       </c>
       <c r="R18">
-        <v>4.84951883766</v>
+        <v>5.313515975420001</v>
       </c>
       <c r="S18">
-        <v>0.0009028711431659674</v>
+        <v>0.0008933374806720616</v>
       </c>
       <c r="T18">
-        <v>0.0009028711431659675</v>
+        <v>0.0008933374806720615</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1603,10 +1603,10 @@
         <v>1.88887</v>
       </c>
       <c r="I19">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J19">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N19">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O19">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P19">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q19">
-        <v>3.205908952935555</v>
+        <v>3.748983423371111</v>
       </c>
       <c r="R19">
-        <v>28.85318057642</v>
+        <v>33.74085081034</v>
       </c>
       <c r="S19">
-        <v>0.005371812132928316</v>
+        <v>0.005672697098884414</v>
       </c>
       <c r="T19">
-        <v>0.005371812132928317</v>
+        <v>0.005672697098884414</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H20">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I20">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J20">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N20">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O20">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P20">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q20">
-        <v>4.424653451290666</v>
+        <v>7.842841962250668</v>
       </c>
       <c r="R20">
-        <v>39.821881061616</v>
+        <v>70.58557766025599</v>
       </c>
       <c r="S20">
-        <v>0.007413937027713257</v>
+        <v>0.01186723487997249</v>
       </c>
       <c r="T20">
-        <v>0.007413937027713259</v>
+        <v>0.01186723487997248</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H21">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I21">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J21">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>39.444981</v>
       </c>
       <c r="O21">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P21">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q21">
-        <v>10.81434994312733</v>
+        <v>12.146319295984</v>
       </c>
       <c r="R21">
-        <v>97.32914948814599</v>
+        <v>109.316873663856</v>
       </c>
       <c r="S21">
-        <v>0.01812049471368497</v>
+        <v>0.01837895302574977</v>
       </c>
       <c r="T21">
-        <v>0.01812049471368497</v>
+        <v>0.01837895302574977</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H22">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I22">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J22">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N22">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O22">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P22">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q22">
-        <v>4.39046095244</v>
+        <v>5.201679987402668</v>
       </c>
       <c r="R22">
-        <v>39.51414857196</v>
+        <v>46.815119886624</v>
       </c>
       <c r="S22">
-        <v>0.007356644171653524</v>
+        <v>0.007870815002785699</v>
       </c>
       <c r="T22">
-        <v>0.007356644171653525</v>
+        <v>0.007870815002785697</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H23">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I23">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J23">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N23">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O23">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P23">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q23">
-        <v>8.317911779844</v>
+        <v>6.225051222250666</v>
       </c>
       <c r="R23">
-        <v>74.86120601859599</v>
+        <v>56.025461000256</v>
       </c>
       <c r="S23">
-        <v>0.01393746986441369</v>
+        <v>0.009419308121964088</v>
       </c>
       <c r="T23">
-        <v>0.0139374698644137</v>
+        <v>0.009419308121964086</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H24">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I24">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J24">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N24">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O24">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P24">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q24">
-        <v>0.7038907358653332</v>
+        <v>0.8662292887573334</v>
       </c>
       <c r="R24">
-        <v>6.335016622787999</v>
+        <v>7.796063598816001</v>
       </c>
       <c r="S24">
-        <v>0.001179437361037635</v>
+        <v>0.001310717018024012</v>
       </c>
       <c r="T24">
-        <v>0.001179437361037635</v>
+        <v>0.001310717018024012</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H25">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I25">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J25">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N25">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O25">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P25">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q25">
-        <v>4.18793847139511</v>
+        <v>5.500559955914667</v>
       </c>
       <c r="R25">
-        <v>37.691446242556</v>
+        <v>49.505039603232</v>
       </c>
       <c r="S25">
-        <v>0.007017298065186116</v>
+        <v>0.008323059075064929</v>
       </c>
       <c r="T25">
-        <v>0.007017298065186119</v>
+        <v>0.008323059075064929</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H26">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I26">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J26">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N26">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O26">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P26">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q26">
-        <v>39.35644772776266</v>
+        <v>72.04644626562356</v>
       </c>
       <c r="R26">
-        <v>354.208029549864</v>
+        <v>648.4180163906119</v>
       </c>
       <c r="S26">
-        <v>0.06594555444856527</v>
+        <v>0.1090155971797899</v>
       </c>
       <c r="T26">
-        <v>0.06594555444856529</v>
+        <v>0.1090155971797898</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H27">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I27">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J27">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>39.444981</v>
       </c>
       <c r="O27">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P27">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q27">
-        <v>96.19157814998434</v>
+        <v>111.5793413529513</v>
       </c>
       <c r="R27">
-        <v>865.724203349859</v>
+        <v>1004.214072176562</v>
       </c>
       <c r="S27">
-        <v>0.1611783410500352</v>
+        <v>0.1688339836454018</v>
       </c>
       <c r="T27">
-        <v>0.1611783410500352</v>
+        <v>0.1688339836454018</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H28">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I28">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J28">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N28">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O28">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P28">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q28">
-        <v>39.05231197826</v>
+        <v>47.78402516679423</v>
       </c>
       <c r="R28">
-        <v>351.47080780434</v>
+        <v>430.056226501148</v>
       </c>
       <c r="S28">
-        <v>0.06543594543183395</v>
+        <v>0.07230341410604335</v>
       </c>
       <c r="T28">
-        <v>0.06543594543183395</v>
+        <v>0.07230341410604332</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H29">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I29">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J29">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N29">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O29">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P29">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q29">
-        <v>73.986237288726</v>
+        <v>57.18498734812356</v>
       </c>
       <c r="R29">
-        <v>665.876135598534</v>
+        <v>514.664886133112</v>
       </c>
       <c r="S29">
-        <v>0.1239711336073246</v>
+        <v>0.08652828652353602</v>
       </c>
       <c r="T29">
-        <v>0.1239711336073246</v>
+        <v>0.08652828652353602</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H30">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I30">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J30">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N30">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O30">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P30">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q30">
-        <v>6.260973714011333</v>
+        <v>7.957414188192446</v>
       </c>
       <c r="R30">
-        <v>56.348763426102</v>
+        <v>71.616727693732</v>
       </c>
       <c r="S30">
-        <v>0.01049087015714367</v>
+        <v>0.01204059748532864</v>
       </c>
       <c r="T30">
-        <v>0.01049087015714367</v>
+        <v>0.01204059748532864</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H31">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I31">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J31">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N31">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O31">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P31">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q31">
-        <v>37.25091317343044</v>
+        <v>50.52961658568488</v>
       </c>
       <c r="R31">
-        <v>335.258218560874</v>
+        <v>454.766549271164</v>
       </c>
       <c r="S31">
-        <v>0.06241752660020577</v>
+        <v>0.07645784924693226</v>
       </c>
       <c r="T31">
-        <v>0.06241752660020579</v>
+        <v>0.07645784924693226</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H32">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I32">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J32">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.379592</v>
+        <v>8.489835333333334</v>
       </c>
       <c r="N32">
-        <v>16.138776</v>
+        <v>25.469506</v>
       </c>
       <c r="O32">
-        <v>0.1347369221116526</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="P32">
-        <v>0.1347369221116527</v>
+        <v>0.2075776945087381</v>
       </c>
       <c r="Q32">
-        <v>1.894606228928</v>
+        <v>1.798515016464444</v>
       </c>
       <c r="R32">
-        <v>17.051456060352</v>
+        <v>16.18663514818</v>
       </c>
       <c r="S32">
-        <v>0.003174596932441824</v>
+        <v>0.002721385976954737</v>
       </c>
       <c r="T32">
-        <v>0.003174596932441825</v>
+        <v>0.002721385976954737</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H33">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I33">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J33">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>39.444981</v>
       </c>
       <c r="O33">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="P33">
-        <v>0.3293121691937864</v>
+        <v>0.3214784855238645</v>
       </c>
       <c r="Q33">
-        <v>4.630630396168001</v>
+        <v>2.785385419436666</v>
       </c>
       <c r="R33">
-        <v>41.67567356551201</v>
+        <v>25.06846877493</v>
       </c>
       <c r="S33">
-        <v>0.007759071424179011</v>
+        <v>0.004214648613704798</v>
       </c>
       <c r="T33">
-        <v>0.007759071424179012</v>
+        <v>0.004214648613704798</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H34">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I34">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J34">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.33802</v>
+        <v>5.630791333333334</v>
       </c>
       <c r="N34">
-        <v>16.01406</v>
+        <v>16.892374</v>
       </c>
       <c r="O34">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="P34">
-        <v>0.133695712420281</v>
+        <v>0.1376736576555254</v>
       </c>
       <c r="Q34">
-        <v>1.87996523568</v>
+        <v>1.192845605357778</v>
       </c>
       <c r="R34">
-        <v>16.91968712112</v>
+        <v>10.73561044822</v>
       </c>
       <c r="S34">
-        <v>0.003150064524840008</v>
+        <v>0.001804929774494834</v>
       </c>
       <c r="T34">
-        <v>0.003150064524840008</v>
+        <v>0.001804929774494833</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H35">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I35">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J35">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.113102</v>
+        <v>6.738585333333333</v>
       </c>
       <c r="N35">
-        <v>30.339306</v>
+        <v>20.215756</v>
       </c>
       <c r="O35">
-        <v>0.2532921151792178</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="P35">
-        <v>0.2532921151792179</v>
+        <v>0.1647593802263456</v>
       </c>
       <c r="Q35">
-        <v>3.561672714768001</v>
+        <v>1.427524378964444</v>
       </c>
       <c r="R35">
-        <v>32.05505443291201</v>
+        <v>12.84771941068</v>
       </c>
       <c r="S35">
-        <v>0.005967928903655013</v>
+        <v>0.002160029130205297</v>
       </c>
       <c r="T35">
-        <v>0.005967928903655014</v>
+        <v>0.002160029130205297</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H36">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I36">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J36">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.855806</v>
+        <v>0.9376886666666667</v>
       </c>
       <c r="N36">
-        <v>2.567418</v>
+        <v>2.813066</v>
       </c>
       <c r="O36">
-        <v>0.02143446312744256</v>
+        <v>0.02292662271427322</v>
       </c>
       <c r="P36">
-        <v>0.02143446312744257</v>
+        <v>0.02292662271427321</v>
       </c>
       <c r="Q36">
-        <v>0.301401180304</v>
+        <v>0.1986430927755555</v>
       </c>
       <c r="R36">
-        <v>2.712610622736</v>
+        <v>1.78778783498</v>
       </c>
       <c r="S36">
-        <v>0.0005050269801808962</v>
+        <v>0.0003005727070108135</v>
       </c>
       <c r="T36">
-        <v>0.0005050269801808963</v>
+        <v>0.0003005727070108134</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H37">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I37">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J37">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>5.091788666666666</v>
+        <v>5.954327333333333</v>
       </c>
       <c r="N37">
-        <v>15.275366</v>
+        <v>17.862982</v>
       </c>
       <c r="O37">
-        <v>0.1275286179676195</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="P37">
-        <v>0.1275286179676196</v>
+        <v>0.1455841593712531</v>
       </c>
       <c r="Q37">
-        <v>1.793246499781333</v>
+        <v>1.261384550051111</v>
       </c>
       <c r="R37">
-        <v>16.139218498032</v>
+        <v>11.35246095046</v>
       </c>
       <c r="S37">
-        <v>0.003004758851943055</v>
+        <v>0.001908638067868096</v>
       </c>
       <c r="T37">
-        <v>0.003004758851943056</v>
+        <v>0.001908638067868096</v>
       </c>
     </row>
   </sheetData>
